--- a/report/templates/sale_report_month.xlsx
+++ b/report/templates/sale_report_month.xlsx
@@ -107,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -143,11 +143,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -235,7 +230,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -259,10 +254,10 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.52"/>

--- a/report/templates/sale_report_month.xlsx
+++ b/report/templates/sale_report_month.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
-    <t xml:space="preserve">Rekap Data Penjualan UD. Cendana Timor Bulan {d.month} {d.year}</t>
+    <t xml:space="preserve">REKAP DATA PENJUALAN UD. CENDANA TIMOR BULAN {d.month} {d.year}</t>
   </si>
   <si>
     <t xml:space="preserve">No</t>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">Unit</t>
   </si>
   <si>
-    <t xml:space="preserve">harga</t>
+    <t xml:space="preserve">Harga Beli</t>
   </si>
   <si>
     <t xml:space="preserve">Nominal</t>
@@ -107,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -130,18 +130,29 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="LM Mono 9"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <name val="LM Mono 9"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="LM Mono 9"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -153,7 +164,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -163,14 +174,7 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
+      <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -201,7 +205,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -210,27 +214,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -251,115 +251,142 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="18.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="18.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="27.89"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+    <row r="4" customFormat="false" ht="16.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+    <row r="5" customFormat="false" ht="16.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I2"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
